--- a/PoliticaEspañola.xlsx
+++ b/PoliticaEspañola.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t xml:space="preserve">Posiciones politicas</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://reporting.aimc.es/index.html#/main/diarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.publico.es/politica/preguntas-locas-carles-mulet.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ecodiario.eleconomista.es/politica-eD/noticias/4483429/12/12/El-Parlamento-puede-ser-divertido-estas-son-las-preguntas-mas-absurdas-y-graciosas-de-nuestros-politicos.html</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,15 +322,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,17 +403,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:O39"/>
+  <dimension ref="A4:O41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="3" sqref="H14 H16 H22 H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.53"/>
@@ -423,7 +421,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.53"/>
   </cols>
   <sheetData>
@@ -723,7 +721,7 @@
       <c r="H18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O18" s="4"/>
@@ -795,7 +793,7 @@
       <c r="A22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
@@ -810,7 +808,7 @@
       <c r="A23" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="0" t="s">
@@ -819,7 +817,7 @@
       <c r="H23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O23" s="4"/>
@@ -828,7 +826,7 @@
       <c r="A24" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -846,7 +844,7 @@
       <c r="A25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -864,7 +862,7 @@
       <c r="A26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -896,7 +894,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -925,7 +923,21 @@
         <v>57</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1" display="https://www.publico.es/politica/preguntas-locas-carles-mulet.html"/>
+    <hyperlink ref="A41" r:id="rId2" display="https://ecodiario.eleconomista.es/politica-eD/noticias/4483429/12/12/El-Parlamento-puede-ser-divertido-estas-son-las-preguntas-mas-absurdas-y-graciosas-de-nuestros-politicos.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/PoliticaEspañola.xlsx
+++ b/PoliticaEspañola.xlsx
@@ -403,29 +403,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:O41"/>
+  <dimension ref="A4:N41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +448,7 @@
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -473,10 +474,10 @@
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="4" t="n">
         <v>0.859</v>
       </c>
     </row>
@@ -502,10 +503,10 @@
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>0.557</v>
       </c>
     </row>
@@ -531,14 +532,14 @@
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="4" t="n">
         <v>0.202</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>30</v>
       </c>
@@ -558,7 +559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>36</v>
       </c>
@@ -572,7 +573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="s">
         <v>40</v>
       </c>
@@ -584,10 +585,10 @@
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -607,14 +608,14 @@
       <c r="H13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>0.159</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <f aca="false">M13*$M$5</f>
+      <c r="N13" s="4" t="n">
+        <f aca="false">L13*$L$5</f>
         <v>0.136581</v>
       </c>
     </row>
@@ -634,14 +635,14 @@
       <c r="H14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>0.049</v>
       </c>
-      <c r="O14" s="4" t="n">
-        <f aca="false">M14*$M$5</f>
+      <c r="N14" s="4" t="n">
+        <f aca="false">L14*$L$5</f>
         <v>0.042091</v>
       </c>
     </row>
@@ -661,14 +662,14 @@
       <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>0.115</v>
       </c>
-      <c r="O15" s="4" t="n">
-        <f aca="false">M15*$M$5</f>
+      <c r="N15" s="4" t="n">
+        <f aca="false">L15*$L$5</f>
         <v>0.098785</v>
       </c>
     </row>
@@ -688,14 +689,14 @@
       <c r="H16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>0.091</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <f aca="false">M16*$M$5</f>
+      <c r="N16" s="4" t="n">
+        <f aca="false">L16*$L$5</f>
         <v>0.078169</v>
       </c>
     </row>
@@ -712,7 +713,7 @@
       <c r="H17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="s">
@@ -721,10 +722,10 @@
       <c r="H18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="s">
@@ -733,14 +734,14 @@
       <c r="H19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="L19" s="4" t="n">
         <v>0.244</v>
       </c>
-      <c r="O19" s="4" t="n">
-        <f aca="false">M19*$M$6</f>
+      <c r="N19" s="4" t="n">
+        <f aca="false">L19*$L$6</f>
         <v>0.135908</v>
       </c>
     </row>
@@ -754,14 +755,14 @@
       <c r="H20" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="L20" s="4" t="n">
         <v>0.291</v>
       </c>
-      <c r="O20" s="4" t="n">
-        <f aca="false">M20*$M$6</f>
+      <c r="N20" s="4" t="n">
+        <f aca="false">L20*$L$6</f>
         <v>0.162087</v>
       </c>
     </row>
@@ -778,14 +779,14 @@
       <c r="H21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="L21" s="4" t="n">
         <v>0.115</v>
       </c>
-      <c r="O21" s="4" t="n">
-        <f aca="false">M21*$M$6</f>
+      <c r="N21" s="4" t="n">
+        <f aca="false">L21*$L$6</f>
         <v>0.064055</v>
       </c>
     </row>
@@ -802,7 +803,7 @@
       <c r="H22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -817,10 +818,10 @@
       <c r="H23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -829,14 +830,14 @@
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="L24" s="4" t="n">
         <v>0.0527</v>
       </c>
-      <c r="O24" s="4" t="n">
-        <f aca="false">M24*$M$7</f>
+      <c r="N24" s="4" t="n">
+        <f aca="false">L24*$L$7</f>
         <v>0.0106454</v>
       </c>
     </row>
@@ -847,14 +848,14 @@
       <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="L25" s="4" t="n">
         <v>0.1191</v>
       </c>
-      <c r="O25" s="4" t="n">
-        <f aca="false">M25*$M$7</f>
+      <c r="N25" s="4" t="n">
+        <f aca="false">L25*$L$7</f>
         <v>0.0240582</v>
       </c>
     </row>
@@ -865,70 +866,70 @@
       <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="L26" s="4" t="n">
         <v>0.078</v>
       </c>
-      <c r="O26" s="4" t="n">
-        <f aca="false">M26*$M$7</f>
+      <c r="N26" s="4" t="n">
+        <f aca="false">L26*$L$7</f>
         <v>0.015756</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="L27" s="4" t="n">
         <v>0.023</v>
       </c>
-      <c r="O27" s="4" t="n">
-        <f aca="false">M27*$M$7</f>
+      <c r="N27" s="4" t="n">
+        <f aca="false">L27*$L$7</f>
         <v>0.004646</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>59</v>
       </c>
